--- a/data/trans_orig/IP2904-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2904-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9674F7C9-D9DE-4BFF-A728-9069C5C58693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A96182-7189-4A47-8EFA-092AAD59B2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C521F444-D863-4C3A-896B-8B1D12C6408A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B063197-F201-40F2-A851-6D31450F1156}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="474">
   <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2007 (Tasa respuesta: 95,87%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Solo biberon</t>
@@ -76,28 +76,28 @@
     <t>21,03%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>52,47%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
@@ -106,28 +106,28 @@
     <t>39,41%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>Pecho</t>
@@ -136,1306 +136,1330 @@
     <t>39,56%</t>
   </si>
   <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
     <t>23,27%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2015 (Tasa respuesta: 95,81%)</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>24,74%</t>
   </si>
   <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>28,5%</t>
+    <t>34,23%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D971A1-B65F-41C9-B079-990BBDCEBDDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F113CBA5-3761-4103-BAF9-451024D7897E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2285,7 +2309,7 @@
         <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -2294,13 +2318,13 @@
         <v>31429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -2309,13 +2333,13 @@
         <v>59696</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,7 +2395,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2383,13 +2407,13 @@
         <v>100718</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>130</v>
@@ -2398,13 +2422,13 @@
         <v>81754</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>282</v>
@@ -2413,13 +2437,13 @@
         <v>182473</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2458,13 @@
         <v>48323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -2449,13 +2473,13 @@
         <v>38909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>138</v>
@@ -2464,13 +2488,13 @@
         <v>87231</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2509,13 @@
         <v>59672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -2500,13 +2524,13 @@
         <v>64911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>194</v>
@@ -2515,13 +2539,13 @@
         <v>124583</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2589,13 +2613,13 @@
         <v>59439</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>108</v>
@@ -2604,13 +2628,13 @@
         <v>63446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>202</v>
@@ -2619,13 +2643,13 @@
         <v>122884</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2664,13 @@
         <v>44866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -2655,13 +2679,13 @@
         <v>31156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -2670,13 +2694,13 @@
         <v>76022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2715,13 @@
         <v>39464</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -2706,13 +2730,13 @@
         <v>40681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>128</v>
@@ -2721,13 +2745,13 @@
         <v>80144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2807,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2795,13 +2819,13 @@
         <v>86540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>118</v>
@@ -2810,13 +2834,13 @@
         <v>91165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>244</v>
@@ -2825,13 +2849,13 @@
         <v>177705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2870,13 @@
         <v>45055</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -2861,13 +2885,13 @@
         <v>41388</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -2876,13 +2900,13 @@
         <v>86443</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2921,13 @@
         <v>64930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -2912,13 +2936,13 @@
         <v>64324</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>182</v>
@@ -2927,13 +2951,13 @@
         <v>129254</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3025,13 @@
         <v>308797</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>447</v>
@@ -3016,13 +3040,13 @@
         <v>297498</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>913</v>
@@ -3031,13 +3055,13 @@
         <v>606295</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3076,13 @@
         <v>183754</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -3067,13 +3091,13 @@
         <v>146960</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>493</v>
@@ -3082,13 +3106,13 @@
         <v>330714</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3127,13 @@
         <v>201431</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>307</v>
@@ -3118,13 +3142,13 @@
         <v>205878</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>611</v>
@@ -3133,13 +3157,13 @@
         <v>407309</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3219,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F25284C-662B-41C6-AA43-974A473C3DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2866D8E9-7EE4-4DEE-89F2-784E419D2042}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3233,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3340,13 +3364,13 @@
         <v>10598</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3355,13 +3379,13 @@
         <v>9472</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3370,13 +3394,13 @@
         <v>20070</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3415,13 @@
         <v>5503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3406,13 +3430,13 @@
         <v>7790</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3421,13 +3445,13 @@
         <v>13293</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3466,13 @@
         <v>9354</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3457,13 +3481,13 @@
         <v>5111</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -3472,13 +3496,13 @@
         <v>14464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3570,13 @@
         <v>53187</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -3561,13 +3585,13 @@
         <v>45779</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>139</v>
@@ -3576,13 +3600,13 @@
         <v>98966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,10 +3621,10 @@
         <v>32251</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>211</v>
@@ -3740,7 +3764,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3803,13 +3827,13 @@
         <v>56648</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3818,13 +3842,13 @@
         <v>44893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3854,13 +3878,13 @@
         <v>49784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -3869,13 +3893,13 @@
         <v>53043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>154</v>
@@ -3884,13 +3908,13 @@
         <v>102826</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,7 +3970,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3958,13 +3982,13 @@
         <v>77797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -3973,13 +3997,13 @@
         <v>73902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>238</v>
@@ -3988,13 +4012,13 @@
         <v>151699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4033,13 @@
         <v>43719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -4024,13 +4048,13 @@
         <v>34597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -4039,13 +4063,13 @@
         <v>78315</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4084,13 @@
         <v>37281</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H18" s="7">
         <v>60</v>
@@ -4152,7 +4176,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4218,10 +4242,10 @@
         <v>287</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>68</v>
@@ -4230,13 +4254,13 @@
         <v>51730</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M21" s="7">
         <v>143</v>
@@ -4245,13 +4269,13 @@
         <v>105368</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4290,13 @@
         <v>45346</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -4281,13 +4305,13 @@
         <v>51934</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -4296,10 +4320,10 @@
         <v>97280</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>303</v>
@@ -4373,7 +4397,7 @@
         <v>304</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>305</v>
@@ -4424,10 +4448,10 @@
         <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>313</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
         <v>239</v>
@@ -4436,13 +4460,13 @@
         <v>167769</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>518</v>
@@ -4451,13 +4475,13 @@
         <v>359530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4496,13 @@
         <v>175843</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H26" s="7">
         <v>269</v>
@@ -4487,13 +4511,13 @@
         <v>187910</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M26" s="7">
         <v>511</v>
@@ -4502,13 +4526,13 @@
         <v>363754</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4588,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4585,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FBFE9-8218-41BA-ACFE-74F5A5D2618A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E15E813-36A9-437A-830A-2D7BD1051A65}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4602,7 +4626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4709,13 +4733,13 @@
         <v>10081</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4724,13 +4748,13 @@
         <v>9215</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4739,13 +4763,13 @@
         <v>19296</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4784,13 @@
         <v>1501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4775,13 +4799,13 @@
         <v>3186</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4790,13 +4814,13 @@
         <v>4687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4835,13 @@
         <v>13992</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -4826,13 +4850,13 @@
         <v>9082</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -4841,13 +4865,13 @@
         <v>23074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4939,13 @@
         <v>47433</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -4930,13 +4954,13 @@
         <v>41169</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>124</v>
@@ -4945,13 +4969,13 @@
         <v>88602</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4990,13 @@
         <v>29974</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -4981,13 +5005,13 @@
         <v>25579</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -4996,13 +5020,13 @@
         <v>55553</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5041,13 @@
         <v>40327</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -5032,13 +5056,13 @@
         <v>39907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -5047,13 +5071,13 @@
         <v>80234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,7 +5133,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5121,13 +5145,13 @@
         <v>100219</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>145</v>
@@ -5136,13 +5160,13 @@
         <v>90015</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>296</v>
@@ -5154,10 +5178,10 @@
         <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5196,13 @@
         <v>44458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -5187,13 +5211,13 @@
         <v>46640</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -5202,13 +5226,13 @@
         <v>91098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5247,13 @@
         <v>69846</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -5238,13 +5262,13 @@
         <v>62871</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -5253,13 +5277,13 @@
         <v>132718</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5327,13 +5351,13 @@
         <v>78280</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -5342,13 +5366,13 @@
         <v>72273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>238</v>
@@ -5357,13 +5381,13 @@
         <v>150553</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5402,13 @@
         <v>37904</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>60</v>
@@ -5393,13 +5417,13 @@
         <v>36798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -5408,13 +5432,13 @@
         <v>74702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5453,13 @@
         <v>45927</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>172</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
@@ -5444,13 +5468,13 @@
         <v>43635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="M18" s="7">
         <v>139</v>
@@ -5459,13 +5483,13 @@
         <v>89562</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5545,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5533,13 +5557,13 @@
         <v>64374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>116</v>
@@ -5548,13 +5572,13 @@
         <v>83670</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>435</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M20" s="7">
         <v>208</v>
@@ -5563,13 +5587,13 @@
         <v>148045</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5608,13 @@
         <v>75424</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="H21" s="7">
         <v>89</v>
@@ -5599,13 +5623,13 @@
         <v>66607</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M21" s="7">
         <v>195</v>
@@ -5614,13 +5638,13 @@
         <v>142031</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5659,13 @@
         <v>52594</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -5650,13 +5674,13 @@
         <v>46112</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>86</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="M22" s="7">
         <v>134</v>
@@ -5665,13 +5689,13 @@
         <v>98706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5763,13 @@
         <v>300387</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="H24" s="7">
         <v>451</v>
@@ -5754,13 +5778,13 @@
         <v>296343</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M24" s="7">
         <v>887</v>
@@ -5769,13 +5793,13 @@
         <v>596731</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>26</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5814,13 @@
         <v>189261</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="H25" s="7">
         <v>264</v>
@@ -5808,10 +5832,10 @@
         <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>535</v>
@@ -5820,13 +5844,13 @@
         <v>368071</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5865,13 @@
         <v>222687</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>304</v>
@@ -5856,13 +5880,13 @@
         <v>201607</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>615</v>
@@ -5871,13 +5895,13 @@
         <v>424294</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +5957,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2904-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2904-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A96182-7189-4A47-8EFA-092AAD59B2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE85FC85-A21E-4677-9FC8-C60FAA0217E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B063197-F201-40F2-A851-6D31450F1156}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B9529552-EA4E-4D21-BDC8-7D2E1F02AB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="401">
   <si>
     <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2007 (Tasa respuesta: 95,87%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,1399 +67,1180 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Solo biberon</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
   </si>
   <si>
-    <t>39,41%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>30,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>42,02%</t>
   </si>
   <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2012 (Tasa respuesta: 96,05%)</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde el 4º al 6º mes en 2016 (Tasa respuesta: 95,81%)</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
     <t>31,26%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1652,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F113CBA5-3761-4103-BAF9-451024D7897E}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CC897A-46C1-4E6C-A0F9-29C8B44A9C22}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1989,10 +1770,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7">
-        <v>4838</v>
+        <v>61133</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2004,10 +1785,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="I4" s="7">
-        <v>11548</v>
+        <v>62100</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2019,10 +1800,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="N4" s="7">
-        <v>16385</v>
+        <v>123233</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2040,10 +1821,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7">
-        <v>9066</v>
+        <v>35507</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2055,10 +1836,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I5" s="7">
-        <v>5929</v>
+        <v>45510</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2070,10 +1851,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="N5" s="7">
-        <v>14995</v>
+        <v>81017</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2091,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7">
-        <v>9099</v>
+        <v>35963</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2106,10 +1887,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>4534</v>
+        <v>37365</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2121,10 +1902,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="N6" s="7">
-        <v>13632</v>
+        <v>73328</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2142,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D7" s="7">
-        <v>23003</v>
+        <v>132603</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2157,10 +1938,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="I7" s="7">
-        <v>22010</v>
+        <v>144975</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2172,10 +1953,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>58</v>
+        <v>409</v>
       </c>
       <c r="N7" s="7">
-        <v>45012</v>
+        <v>277578</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2195,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7">
-        <v>57262</v>
+        <v>81754</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2210,10 +1991,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="I8" s="7">
-        <v>49586</v>
+        <v>100718</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2225,10 +2006,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>163</v>
+        <v>282</v>
       </c>
       <c r="N8" s="7">
-        <v>106848</v>
+        <v>182473</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2246,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>36443</v>
+        <v>38909</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2261,10 +2042,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>29579</v>
+        <v>48323</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2276,10 +2057,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="N9" s="7">
-        <v>66022</v>
+        <v>87231</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2288,7 +2069,7 @@
         <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,49 +2078,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7">
-        <v>28267</v>
+        <v>64911</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>91</v>
+      </c>
+      <c r="I10" s="7">
+        <v>59672</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>46</v>
-      </c>
-      <c r="I10" s="7">
-        <v>31429</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>194</v>
+      </c>
+      <c r="N10" s="7">
+        <v>124583</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>89</v>
-      </c>
-      <c r="N10" s="7">
-        <v>59696</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,10 +2129,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="D11" s="7">
-        <v>121972</v>
+        <v>185574</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2363,10 +2144,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>110594</v>
+        <v>208713</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2378,10 +2159,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>351</v>
+        <v>614</v>
       </c>
       <c r="N11" s="7">
-        <v>232566</v>
+        <v>394287</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2395,55 +2176,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D12" s="7">
-        <v>100718</v>
+        <v>63446</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>94</v>
+      </c>
+      <c r="I12" s="7">
+        <v>59439</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>130</v>
-      </c>
-      <c r="I12" s="7">
-        <v>81754</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>202</v>
+      </c>
+      <c r="N12" s="7">
+        <v>122884</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>282</v>
-      </c>
-      <c r="N12" s="7">
-        <v>182473</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,49 +2233,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>48323</v>
+        <v>31156</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>68</v>
+      </c>
+      <c r="I13" s="7">
+        <v>44866</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7">
-        <v>64</v>
-      </c>
-      <c r="I13" s="7">
-        <v>38909</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>118</v>
+      </c>
+      <c r="N13" s="7">
+        <v>76022</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="7">
-        <v>138</v>
-      </c>
-      <c r="N13" s="7">
-        <v>87231</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,49 +2284,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7">
+        <v>40681</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="7">
+        <v>61</v>
+      </c>
+      <c r="I14" s="7">
+        <v>39464</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="7">
-        <v>59672</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="7">
-        <v>103</v>
-      </c>
-      <c r="I14" s="7">
-        <v>64911</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>128</v>
+      </c>
+      <c r="N14" s="7">
+        <v>80144</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>194</v>
-      </c>
-      <c r="N14" s="7">
-        <v>124583</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,10 +2335,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>208713</v>
+        <v>135283</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2569,10 +2350,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>185574</v>
+        <v>143769</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2584,10 +2365,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>614</v>
+        <v>448</v>
       </c>
       <c r="N15" s="7">
-        <v>394287</v>
+        <v>279051</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2601,55 +2382,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D16" s="7">
-        <v>59439</v>
+        <v>91165</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>126</v>
+      </c>
+      <c r="I16" s="7">
+        <v>86540</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="7">
-        <v>108</v>
-      </c>
-      <c r="I16" s="7">
-        <v>63446</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>244</v>
+      </c>
+      <c r="N16" s="7">
+        <v>177705</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M16" s="7">
-        <v>202</v>
-      </c>
-      <c r="N16" s="7">
-        <v>122884</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,49 +2439,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>44866</v>
+        <v>41388</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="7">
+        <v>66</v>
+      </c>
+      <c r="I17" s="7">
+        <v>45055</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>50</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31156</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>120</v>
+      </c>
+      <c r="N17" s="7">
+        <v>86443</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="M17" s="7">
-        <v>118</v>
-      </c>
-      <c r="N17" s="7">
-        <v>76022</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,49 +2490,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D18" s="7">
-        <v>39464</v>
+        <v>64324</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="7">
+        <v>97</v>
+      </c>
+      <c r="I18" s="7">
+        <v>64930</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>182</v>
+      </c>
+      <c r="N18" s="7">
+        <v>129254</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="7">
-        <v>67</v>
-      </c>
-      <c r="I18" s="7">
-        <v>40681</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M18" s="7">
-        <v>128</v>
-      </c>
-      <c r="N18" s="7">
-        <v>80144</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,10 +2541,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="D19" s="7">
-        <v>143769</v>
+        <v>196877</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2775,10 +2556,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="I19" s="7">
-        <v>135283</v>
+        <v>196525</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2790,10 +2571,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>448</v>
+        <v>546</v>
       </c>
       <c r="N19" s="7">
-        <v>279051</v>
+        <v>393402</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2807,55 +2588,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>447</v>
+      </c>
+      <c r="D20" s="7">
+        <v>297498</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="7">
+        <v>466</v>
+      </c>
+      <c r="I20" s="7">
+        <v>308797</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="7">
-        <v>86540</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="7">
-        <v>118</v>
-      </c>
-      <c r="I20" s="7">
-        <v>91165</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>913</v>
+      </c>
+      <c r="N20" s="7">
+        <v>606295</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M20" s="7">
-        <v>244</v>
-      </c>
-      <c r="N20" s="7">
-        <v>177705</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,49 +2645,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>45055</v>
+        <v>146960</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="7">
+        <v>274</v>
+      </c>
+      <c r="I21" s="7">
+        <v>183754</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="7">
-        <v>54</v>
-      </c>
-      <c r="I21" s="7">
-        <v>41388</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>493</v>
+      </c>
+      <c r="N21" s="7">
+        <v>330714</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="7">
-        <v>120</v>
-      </c>
-      <c r="N21" s="7">
-        <v>86443</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,49 +2696,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="D22" s="7">
-        <v>64930</v>
+        <v>205878</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>304</v>
+      </c>
+      <c r="I22" s="7">
+        <v>201431</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="7">
-        <v>85</v>
-      </c>
-      <c r="I22" s="7">
-        <v>64324</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>611</v>
+      </c>
+      <c r="N22" s="7">
+        <v>407309</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M22" s="7">
-        <v>182</v>
-      </c>
-      <c r="N22" s="7">
-        <v>129254</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2747,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>289</v>
+        <v>973</v>
       </c>
       <c r="D23" s="7">
-        <v>196525</v>
+        <v>650336</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2981,10 +2762,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>257</v>
+        <v>1044</v>
       </c>
       <c r="I23" s="7">
-        <v>196877</v>
+        <v>693982</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2996,10 +2777,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>546</v>
+        <v>2017</v>
       </c>
       <c r="N23" s="7">
-        <v>393402</v>
+        <v>1344318</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3012,222 +2793,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>466</v>
-      </c>
-      <c r="D24" s="7">
-        <v>308797</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="7">
-        <v>447</v>
-      </c>
-      <c r="I24" s="7">
-        <v>297498</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="7">
-        <v>913</v>
-      </c>
-      <c r="N24" s="7">
-        <v>606295</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>274</v>
-      </c>
-      <c r="D25" s="7">
-        <v>183754</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="7">
-        <v>219</v>
-      </c>
-      <c r="I25" s="7">
-        <v>146960</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="7">
-        <v>493</v>
-      </c>
-      <c r="N25" s="7">
-        <v>330714</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>304</v>
-      </c>
-      <c r="D26" s="7">
-        <v>201431</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="7">
-        <v>307</v>
-      </c>
-      <c r="I26" s="7">
-        <v>205878</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M26" s="7">
-        <v>611</v>
-      </c>
-      <c r="N26" s="7">
-        <v>407309</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1044</v>
-      </c>
-      <c r="D27" s="7">
-        <v>693982</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>973</v>
-      </c>
-      <c r="I27" s="7">
-        <v>650336</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2017</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1344318</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>176</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3240,8 +2814,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2866D8E9-7EE4-4DEE-89F2-784E419D2042}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563029B7-54A8-497A-AD02-A1B7F9E2233B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3257,7 +2831,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3358,49 +2932,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7">
-        <v>10598</v>
+        <v>55251</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7">
-        <v>9472</v>
+        <v>63785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="N4" s="7">
-        <v>20070</v>
+        <v>119036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,49 +2983,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D5" s="7">
-        <v>5503</v>
+        <v>36550</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>7790</v>
+        <v>37754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="N5" s="7">
-        <v>13293</v>
+        <v>74305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3034,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7">
-        <v>9354</v>
+        <v>43259</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>5111</v>
+        <v>43433</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="N6" s="7">
-        <v>14464</v>
+        <v>86692</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,10 +3085,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>135061</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3526,10 +3100,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>144972</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3541,10 +3115,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>280033</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3564,49 +3138,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>53187</v>
+        <v>98500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="I8" s="7">
-        <v>45779</v>
+        <v>109254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>98966</v>
+        <v>207755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,49 +3189,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>32251</v>
+        <v>44893</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I9" s="7">
-        <v>28760</v>
+        <v>56648</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="N9" s="7">
-        <v>61011</v>
+        <v>101541</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,49 +3240,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>34079</v>
+        <v>53043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7">
-        <v>38149</v>
+        <v>49784</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="N10" s="7">
-        <v>72228</v>
+        <v>102826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,10 +3291,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>119517</v>
+        <v>196436</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3732,10 +3306,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="I11" s="7">
-        <v>112688</v>
+        <v>215686</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3747,10 +3321,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>327</v>
+        <v>617</v>
       </c>
       <c r="N11" s="7">
-        <v>232205</v>
+        <v>412122</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3764,55 +3338,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="D12" s="7">
-        <v>109254</v>
+        <v>73902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="H12" s="7">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="I12" s="7">
-        <v>98500</v>
+        <v>77797</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>207755</v>
+        <v>151699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,49 +3395,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>56648</v>
+        <v>34597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I13" s="7">
-        <v>44893</v>
+        <v>43719</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="N13" s="7">
-        <v>101541</v>
+        <v>78315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,49 +3446,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>49784</v>
+        <v>39674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>53043</v>
+        <v>37281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>102826</v>
+        <v>76955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,10 +3497,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="D15" s="7">
-        <v>215686</v>
+        <v>148173</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3938,10 +3512,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="I15" s="7">
-        <v>196436</v>
+        <v>158796</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3953,10 +3527,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>617</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>412122</v>
+        <v>306969</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3970,55 +3544,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D16" s="7">
-        <v>77797</v>
+        <v>100661</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="I16" s="7">
-        <v>73902</v>
+        <v>104021</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="N16" s="7">
-        <v>151699</v>
+        <v>204682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,49 +3601,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>43719</v>
+        <v>51730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>34597</v>
+        <v>53639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="N17" s="7">
-        <v>78315</v>
+        <v>105368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,49 +3652,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>37281</v>
+        <v>51934</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I18" s="7">
-        <v>39674</v>
+        <v>45346</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N18" s="7">
-        <v>76955</v>
+        <v>97280</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,10 +3703,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D19" s="7">
-        <v>158796</v>
+        <v>204325</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4144,10 +3718,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="I19" s="7">
-        <v>148173</v>
+        <v>203006</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4159,10 +3733,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>476</v>
+        <v>542</v>
       </c>
       <c r="N19" s="7">
-        <v>306969</v>
+        <v>407330</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4176,55 +3750,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>142</v>
+        <v>477</v>
       </c>
       <c r="D20" s="7">
-        <v>104021</v>
+        <v>328315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
-        <v>132</v>
+        <v>510</v>
       </c>
       <c r="I20" s="7">
-        <v>100661</v>
+        <v>354857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
-        <v>274</v>
+        <v>987</v>
       </c>
       <c r="N20" s="7">
-        <v>204682</v>
+        <v>683171</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,49 +3807,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>53639</v>
+        <v>167770</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="H21" s="7">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="I21" s="7">
-        <v>51730</v>
+        <v>191760</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="M21" s="7">
-        <v>143</v>
+        <v>518</v>
       </c>
       <c r="N21" s="7">
-        <v>105368</v>
+        <v>359530</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,49 +3858,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="D22" s="7">
-        <v>45346</v>
+        <v>187911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="I22" s="7">
-        <v>51934</v>
+        <v>175843</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>125</v>
+        <v>511</v>
       </c>
       <c r="N22" s="7">
-        <v>97280</v>
+        <v>363754</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,10 +3909,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>275</v>
+        <v>985</v>
       </c>
       <c r="D23" s="7">
-        <v>203006</v>
+        <v>683995</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4350,10 +3924,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>267</v>
+        <v>1031</v>
       </c>
       <c r="I23" s="7">
-        <v>204325</v>
+        <v>722460</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4365,10 +3939,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>542</v>
+        <v>2016</v>
       </c>
       <c r="N23" s="7">
-        <v>407330</v>
+        <v>1406455</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4381,222 +3955,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>510</v>
-      </c>
-      <c r="D24" s="7">
-        <v>354857</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H24" s="7">
-        <v>477</v>
-      </c>
-      <c r="I24" s="7">
-        <v>328314</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M24" s="7">
-        <v>987</v>
-      </c>
-      <c r="N24" s="7">
-        <v>683171</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>279</v>
-      </c>
-      <c r="D25" s="7">
-        <v>191760</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="7">
-        <v>239</v>
-      </c>
-      <c r="I25" s="7">
-        <v>167769</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M25" s="7">
-        <v>518</v>
-      </c>
-      <c r="N25" s="7">
-        <v>359530</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>242</v>
-      </c>
-      <c r="D26" s="7">
-        <v>175843</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H26" s="7">
-        <v>269</v>
-      </c>
-      <c r="I26" s="7">
-        <v>187910</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="M26" s="7">
-        <v>511</v>
-      </c>
-      <c r="N26" s="7">
-        <v>363754</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1031</v>
-      </c>
-      <c r="D27" s="7">
-        <v>722460</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>985</v>
-      </c>
-      <c r="I27" s="7">
-        <v>683994</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2016</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1406454</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>176</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4609,8 +3976,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E15E813-36A9-437A-830A-2D7BD1051A65}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E84E08-41E8-4318-B50D-83EAAA17AC92}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4626,7 +3993,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4727,49 +4094,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D4" s="7">
-        <v>10081</v>
+        <v>50385</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I4" s="7">
-        <v>9215</v>
+        <v>57513</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="N4" s="7">
-        <v>19296</v>
+        <v>107898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,49 +4145,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>1501</v>
+        <v>28765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>3186</v>
+        <v>31475</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="N5" s="7">
-        <v>4687</v>
+        <v>60240</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,49 +4196,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>13992</v>
+        <v>48989</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7">
-        <v>9082</v>
+        <v>54320</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="M6" s="7">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="N6" s="7">
-        <v>23074</v>
+        <v>103308</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,10 +4247,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>128138</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4895,10 +4262,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="I7" s="7">
-        <v>21483</v>
+        <v>143308</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4910,10 +4277,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>368</v>
       </c>
       <c r="N7" s="7">
-        <v>47057</v>
+        <v>271446</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4933,49 +4300,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="D8" s="7">
-        <v>47433</v>
+        <v>90015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="I8" s="7">
-        <v>41169</v>
+        <v>100219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="N8" s="7">
-        <v>88602</v>
+        <v>190235</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,49 +4351,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D9" s="7">
-        <v>29974</v>
+        <v>46640</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>25579</v>
+        <v>44458</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="N9" s="7">
-        <v>55553</v>
+        <v>91098</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,49 +4402,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>40327</v>
+        <v>62871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>39907</v>
+        <v>69846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="N10" s="7">
-        <v>80234</v>
+        <v>132718</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,10 +4453,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>117734</v>
+        <v>199527</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5101,10 +4468,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>106655</v>
+        <v>214523</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5116,10 +4483,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>224389</v>
+        <v>414051</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5133,55 +4500,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D12" s="7">
-        <v>100219</v>
+        <v>72273</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="I12" s="7">
-        <v>90015</v>
+        <v>78280</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>389</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
-        <v>296</v>
+        <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>190235</v>
+        <v>150553</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>335</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,49 +4557,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>44458</v>
+        <v>36798</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="H13" s="7">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>46640</v>
+        <v>37904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>395</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="N13" s="7">
-        <v>91098</v>
+        <v>74702</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,49 +4608,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>69846</v>
+        <v>43635</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I14" s="7">
-        <v>62871</v>
+        <v>45927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="N14" s="7">
-        <v>132718</v>
+        <v>89562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,10 +4659,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="D15" s="7">
-        <v>214523</v>
+        <v>152706</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5307,10 +4674,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>199527</v>
+        <v>162111</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5322,10 +4689,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>638</v>
+        <v>494</v>
       </c>
       <c r="N15" s="7">
-        <v>414051</v>
+        <v>314817</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5339,55 +4706,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7">
-        <v>78280</v>
+        <v>83670</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>72273</v>
+        <v>64374</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="N16" s="7">
-        <v>150553</v>
+        <v>148045</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,49 +4763,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>37904</v>
+        <v>66607</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I17" s="7">
-        <v>36798</v>
+        <v>75424</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="N17" s="7">
-        <v>74702</v>
+        <v>142031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,49 +4814,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="7">
-        <v>45927</v>
+        <v>46112</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>108</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
       </c>
       <c r="I18" s="7">
-        <v>43635</v>
+        <v>52594</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>195</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N18" s="7">
-        <v>89562</v>
+        <v>98706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,10 +4865,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="D19" s="7">
-        <v>162111</v>
+        <v>196389</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5513,10 +4880,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="I19" s="7">
-        <v>152706</v>
+        <v>192393</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5528,10 +4895,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="N19" s="7">
-        <v>314817</v>
+        <v>388782</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5545,55 +4912,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>92</v>
+        <v>451</v>
       </c>
       <c r="D20" s="7">
-        <v>64374</v>
+        <v>296343</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
-        <v>116</v>
+        <v>436</v>
       </c>
       <c r="I20" s="7">
-        <v>83670</v>
+        <v>300387</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
-        <v>208</v>
+        <v>887</v>
       </c>
       <c r="N20" s="7">
-        <v>148045</v>
+        <v>596731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,49 +4969,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="D21" s="7">
-        <v>75424</v>
+        <v>178810</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>441</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="H21" s="7">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="I21" s="7">
-        <v>66607</v>
+        <v>189261</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>443</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="M21" s="7">
-        <v>195</v>
+        <v>535</v>
       </c>
       <c r="N21" s="7">
-        <v>142031</v>
+        <v>368071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,49 +5020,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="D22" s="7">
-        <v>52594</v>
+        <v>201607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="H22" s="7">
-        <v>61</v>
+        <v>311</v>
       </c>
       <c r="I22" s="7">
-        <v>46112</v>
+        <v>222687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>86</v>
+        <v>396</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="M22" s="7">
-        <v>134</v>
+        <v>615</v>
       </c>
       <c r="N22" s="7">
-        <v>98706</v>
+        <v>424293</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,10 +5071,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>271</v>
+        <v>1019</v>
       </c>
       <c r="D23" s="7">
-        <v>192393</v>
+        <v>676760</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -5719,10 +5086,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>266</v>
+        <v>1018</v>
       </c>
       <c r="I23" s="7">
-        <v>196389</v>
+        <v>712335</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5734,10 +5101,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>537</v>
+        <v>2037</v>
       </c>
       <c r="N23" s="7">
-        <v>388782</v>
+        <v>1389095</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5750,222 +5117,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>436</v>
-      </c>
-      <c r="D24" s="7">
-        <v>300387</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H24" s="7">
-        <v>451</v>
-      </c>
-      <c r="I24" s="7">
-        <v>296343</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="M24" s="7">
-        <v>887</v>
-      </c>
-      <c r="N24" s="7">
-        <v>596731</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>271</v>
-      </c>
-      <c r="D25" s="7">
-        <v>189261</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H25" s="7">
-        <v>264</v>
-      </c>
-      <c r="I25" s="7">
-        <v>178810</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M25" s="7">
-        <v>535</v>
-      </c>
-      <c r="N25" s="7">
-        <v>368071</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>311</v>
-      </c>
-      <c r="D26" s="7">
-        <v>222687</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H26" s="7">
-        <v>304</v>
-      </c>
-      <c r="I26" s="7">
-        <v>201607</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="M26" s="7">
-        <v>615</v>
-      </c>
-      <c r="N26" s="7">
-        <v>424294</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1018</v>
-      </c>
-      <c r="D27" s="7">
-        <v>712335</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1019</v>
-      </c>
-      <c r="I27" s="7">
-        <v>676760</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2037</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1389096</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>176</v>
+      <c r="A24" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
